--- a/WLCases.xlsx
+++ b/WLCases.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A2:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
